--- a/literature.xlsx
+++ b/literature.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Downloads/msc-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B8F061-DAC3-AD4C-9857-AF04D4DD5A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739FB358-BE37-9442-8E96-00348ED41534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{A97D0385-DDF7-1B4E-86CF-EE7A373065A4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="5" xr2:uid="{A97D0385-DDF7-1B4E-86CF-EE7A373065A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="CALIBRATION" sheetId="2" r:id="rId2"/>
-    <sheet name="APPROXIMATION" sheetId="3" r:id="rId3"/>
-    <sheet name="CONSTRUCTION" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="CALIBRATION" sheetId="2" r:id="rId3"/>
+    <sheet name="APPROXIMATION" sheetId="3" r:id="rId4"/>
+    <sheet name="CONSTRUCTION" sheetId="4" r:id="rId5"/>
+    <sheet name="ALTERNATIVE_METHODS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="176">
   <si>
     <t>Neural networks for option pricing and hedging:
 a literature review</t>
@@ -563,6 +564,18 @@
   </si>
   <si>
     <t>Christian Bayer, Benjamin Stemper</t>
+  </si>
+  <si>
+    <t>Machine Learning for Quantitative Finance: Fast Derivative Pricing, Hedging and Fitting</t>
+  </si>
+  <si>
+    <t>Jan De Spiegeleer, Dilip B. Madan, Sofie Reyners, Wim Schoutens</t>
+  </si>
+  <si>
+    <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3191050</t>
+  </si>
+  <si>
+    <t>Gaussian Process Regression</t>
   </si>
 </sst>
 </file>
@@ -967,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF693112-DF4A-CA41-B82F-5732F185C14B}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1789,6 +1802,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30735490-0C70-7A4C-B618-A8E8C5A4FAD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47C2500-EEFF-7043-A067-9B167DA8E593}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1853,7 +1878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C7C654-7144-374A-AD86-859F261B2E3E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1917,7 +1942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917B8EFD-DE47-9E4C-834E-03A0015D1409}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1965,4 +1990,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05579A22-A66C-9B4C-877E-E436920E44FF}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{6217F99C-498B-8D40-8488-3B1BBB687C87}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D8DF35FD-BDA3-864C-A66E-F9CB39549D7B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/literature.xlsx
+++ b/literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Downloads/msc-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739FB358-BE37-9442-8E96-00348ED41534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D4567-0256-5946-9E7A-3F1C9B1138FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="5" xr2:uid="{A97D0385-DDF7-1B4E-86CF-EE7A373065A4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="6" xr2:uid="{A97D0385-DDF7-1B4E-86CF-EE7A373065A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="APPROXIMATION" sheetId="3" r:id="rId4"/>
     <sheet name="CONSTRUCTION" sheetId="4" r:id="rId5"/>
     <sheet name="ALTERNATIVE_METHODS" sheetId="6" r:id="rId6"/>
+    <sheet name="TABLE" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="186">
   <si>
     <t>Neural networks for option pricing and hedging:
 a literature review</t>
@@ -576,6 +578,36 @@
   </si>
   <si>
     <t>Gaussian Process Regression</t>
+  </si>
+  <si>
+    <t>Differential Deep Learning for Pricing Exotic Financial Derivatives</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Differential</t>
+  </si>
+  <si>
+    <t>Autocallables</t>
+  </si>
+  <si>
+    <t>VolModel</t>
+  </si>
+  <si>
+    <t>ParameterSpace?</t>
+  </si>
+  <si>
+    <t>Varying</t>
+  </si>
+  <si>
+    <t>Student Paper based on Huge,Savine</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +2028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05579A22-A66C-9B4C-877E-E436920E44FF}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -2060,4 +2092,166 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5B9F38-6ED9-A042-9D13-E72C707D5F98}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/literature.xlsx
+++ b/literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Downloads/msc-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD2DDA6-390C-6D42-B1A1-6C04510BB50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA146BB-16E1-7147-B3A1-60F3122644A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{A97D0385-DDF7-1B4E-86CF-EE7A373065A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="346">
   <si>
     <t>Neural networks for option pricing and hedging:
 a literature review</t>
@@ -1078,6 +1078,15 @@
   </si>
   <si>
     <t>Basket</t>
+  </si>
+  <si>
+    <t>Deep xVA solver -- A neural network based counterparty credit risk management framework</t>
+  </si>
+  <si>
+    <t>Alessandro Gnoatto, Athena Picarelli, Christoph Reisinger</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2005.02633</t>
   </si>
 </sst>
 </file>
@@ -1466,11 +1475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF693112-DF4A-CA41-B82F-5732F185C14B}">
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3104,6 +3113,20 @@
       </c>
       <c r="L104">
         <v>150000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>343</v>
+      </c>
+      <c r="B105" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105">
+        <v>2020</v>
+      </c>
+      <c r="D105" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
